--- a/6th.xlsx
+++ b/6th.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="33">
   <si>
     <t>Fitness</t>
   </si>
@@ -32,88 +32,85 @@
     <t>Waiting time</t>
   </si>
   <si>
-    <t>[[1, 45, 132, 10, 88, 70, 34], [126, 140, 116, 149, 12, 15], [27, 145, 128, 59, 69, 17, 79]]</t>
+    <t>[[121, 145, 27, 7, 17, 80, 34], [117, 110, 9, 86, 115, 163], [91, 55, 97, 94, 158, 44]]</t>
   </si>
   <si>
-    <t>[[149, 87, 101, 145, 16, 97, 34], [177, 60, 153, 168, 17, 40], [133, 12, 70, 77, 162, 1, 79]]</t>
+    <t>[[25, 72, 87, 15, 139, 110, 79], [158, 10, 163, 156, 18, 73], [28, 107, 55, 32, 138, 34]]</t>
   </si>
   <si>
-    <t>[[40, 9, 144, 159, 123, 17, 79], [117, 134, 163, 148, 88, 84, 38], [2, 60, 111, 1, 15, 43, 34]]</t>
+    <t>[[148, 77, 39, 75, 113, 25], [68, 107, 91, 16, 17, 71, 34], [133, 153, 73, 27, 19, 6]]</t>
   </si>
   <si>
-    <t>[[110, 28, 34, 31, 160, 135, 15], [82, 167, 113, 17, 120, 128, 18], [133, 106, 38, 5, 94, 16, 19]]</t>
+    <t>[[27, 60, 11, 15, 55, 72], [95, 45, 16, 29, 36, 118, 34], [113, 84, 136, 105, 144, 38, 79]]</t>
   </si>
   <si>
-    <t>[[73, 25, 31, 9, 152, 35, 79], [18, 89, 71, 1, 72, 94, 16], [161, 19, 144, 170, 158, 36, 15]]</t>
+    <t>[[18, 68, 61, 88, 69, 97], [8, 148, 17, 40, 145, 139, 1], [149, 25, 175, 5, 168, 36]]</t>
   </si>
   <si>
-    <t>[[40, 35, 139, 167, 88, 93, 102], [48, 9, 152, 1, 79, 43, 19], [51, 59, 168, 101, 117, 17, 34]]</t>
+    <t>[[7, 30, 147, 40, 34, 89, 16], [43, 135, 149, 162, 66, 137], [68, 15, 95, 72, 87, 18, 79]]</t>
   </si>
   <si>
-    <t>[[137, 104, 34, 81, 167, 173, 36], [41, 142, 105, 149, 16, 133, 15], [157, 1, 72, 57, 17, 161, 79]]</t>
+    <t>[[110, 71, 80, 77, 34, 126, 79], [70, 15, 174, 5, 111, 167], [175, 40, 19, 55, 139, 149]]</t>
   </si>
   <si>
-    <t>[[162, 1, 72, 25, 64, 39, 34], [144, 36, 86, 35, 70, 11, 17], [16, 79, 27, 30, 98, 116, 40]]</t>
+    <t>[[174, 59, 70, 17, 94, 93], [40, 34, 151, 64, 73, 116, 79], [175, 84, 125, 104, 39, 25]]</t>
   </si>
   <si>
-    <t>[[140, 91, 82, 38, 79, 17, 25], [137, 70, 69, 1, 72, 71, 34], [84, 18, 45, 35, 139, 133, 15]]</t>
+    <t>[[121, 35, 29, 156, 41, 25, 27], [79, 26, 17, 12, 95, 152, 34], [70, 15, 161, 110, 71, 100]]</t>
   </si>
   <si>
-    <t>[[8, 12, 167, 28, 125, 88, 79], [34, 18, 16, 100, 17, 36, 73, 1], [161, 19, 83, 104, 27, 13, 148]]</t>
+    <t>[[173, 103, 164, 115, 52, 79], [35, 15, 120, 167, 70, 81, 25], [1, 18, 29, 63, 73, 93, 16]]</t>
   </si>
   <si>
-    <t>[[16, 70, 25, 79, 97, 63, 18, 34], [15, 55, 148, 43, 116, 82, 27], [44, 164, 137, 11, 17, 161, 167]]</t>
+    <t>[[38, 146, 173, 68, 41, 79, 34], [12, 64, 73, 116, 133, 97], [16, 28, 18, 17, 87, 101, 167]]</t>
   </si>
   <si>
-    <t>[[104, 27, 34, 18, 95, 25, 19, 148], [8, 147, 29, 35, 40, 93, 70], [113, 17, 79, 30, 16, 168, 73]]</t>
+    <t>[[62, 25, 79, 167, 101, 55, 93], [56, 1, 148, 70, 15, 72, 17], [7, 139, 18, 95, 16, 144, 36]]</t>
   </si>
   <si>
-    <t>[[102, 35, 139, 145, 40, 41, 90], [79, 16, 70, 69, 167, 17, 5, 34], [142, 82, 149, 39, 144, 36, 29]]</t>
+    <t>[[36, 29, 35, 147, 34, 79, 149, 25], [15, 1, 148, 175, 110, 167, 19], [121, 7, 139, 70, 55, 134]]</t>
   </si>
   <si>
-    <t>[[86, 70, 69, 25, 1, 72, 27], [161, 17, 148, 55, 45, 36, 15], [40, 41, 90, 73, 19, 34, 81, 79]]</t>
+    <t>[[113, 86, 17, 93, 16, 25, 18], [68, 132, 36, 87, 34, 70, 40], [62, 1, 148, 29, 35, 27, 120]]</t>
   </si>
   <si>
-    <t>[[36, 35, 139, 161, 167, 94, 79, 34], [55, 86, 15, 40, 93, 72, 27], [162, 132, 71, 18, 16, 70, 25]]</t>
+    <t>[[132, 101, 84, 36, 29, 35, 167], [25, 16, 144, 30, 147, 55, 40], [28, 64, 110, 34, 70, 17, 79]]</t>
   </si>
   <si>
-    <t>[[139, 34, 18, 16, 70, 25, 29, 35], [55, 86, 15, 40, 93, 1, 72], [19, 73, 38, 79, 17, 36, 27, 144]]</t>
+    <t>[[36, 175, 79, 132, 101, 16, 25], [8, 17, 90, 18, 71, 41, 40], [1, 148, 70, 72, 142, 152, 34]]</t>
   </si>
   <si>
-    <t>[[16, 70, 25, 29, 35, 19, 27, 18], [120, 40, 93, 1, 72, 81, 167], [4, 34, 79, 17, 148, 55, 86, 36]]</t>
+    <t>[[134, 71, 41, 16, 25, 93, 27], [175, 110, 79, 36, 29, 35, 147], [95, 152, 120, 40, 148, 70, 34]]</t>
   </si>
   <si>
-    <t>[[45, 18, 95, 101, 1, 72, 25], [90, 73, 16, 70, 34, 79, 17, 148], [145, 144, 36, 15, 167, 29, 35, 40]]</t>
+    <t>[[15, 35, 147, 34, 19, 27, 110, 79], [41, 40, 148, 70, 17, 90, 18], [161, 94, 167, 101, 16, 25, 144]]</t>
   </si>
   <si>
-    <t>[[40, 41, 16, 70, 167, 29, 64, 79], [86, 36, 15, 34, 82, 27, 18, 25], [145, 144, 162, 17, 148, 1, 72]]</t>
+    <t>[[133, 78, 91, 18, 71, 25, 79], [110, 35, 41, 81, 17, 90, 15], [148, 70, 16, 144, 36, 29, 34, 19]]</t>
   </si>
   <si>
-    <t>[[36, 29, 34, 79, 17, 148, 18, 38, 35], [89, 90, 73, 16, 70, 25, 19], [60, 41, 1, 72, 82, 110, 40]]</t>
+    <t>[[110, 167, 79, 17, 90, 15, 1, 34], [11, 64, 29, 35, 41, 16, 120], [132, 36, 91, 18, 77, 40, 148]]</t>
   </si>
   <si>
-    <t>[[17, 148, 55, 35, 40, 41, 36, 144], [84, 149, 1, 72, 25, 77, 16], [71, 167, 29, 45, 18, 79, 34, 82]]</t>
+    <t>[[29, 35, 147, 34, 18, 79, 36, 64], [26, 70, 72, 15, 1, 148, 17], [19, 27, 110, 71, 25, 86, 40]]</t>
   </si>
   <si>
-    <t>[[16, 70, 25, 77, 79, 17, 148, 1], [44, 162, 41, 36, 29, 34, 82, 27], [102, 35, 40, 93, 72, 91, 144]]</t>
+    <t>[[144, 36, 29, 35, 149, 25, 16, 79], [26, 70, 72, 17, 90, 18, 34], [120, 64, 15, 1, 148, 77, 40]]</t>
   </si>
   <si>
-    <t>[[18, 149, 1, 79, 17, 148, 25, 77], [41, 16, 70, 36, 29, 34, 82, 27], [110, 40, 167, 94, 93, 72, 35]]</t>
+    <t>[[36, 29, 35, 41, 16, 77, 79, 27], [110, 71, 25, 86, 17, 93, 34], [68, 132, 90, 15, 1, 148, 18]]</t>
   </si>
   <si>
-    <t>[[36, 144, 35, 40, 41, 16, 79, 17, 34], [38, 148, 25, 19, 27, 18, 149, 1], [72, 91, 120, 15, 167, 29, 64]]</t>
+    <t>[[139, 34, 70, 72, 87, 17, 167], [36, 29, 35, 41, 40, 93, 27, 79], [1, 148, 25, 86, 110, 71, 16]]</t>
   </si>
   <si>
-    <t>[[86, 17, 148, 1, 16, 38, 35, 41], [149, 40, 79, 36, 29, 64, 144, 15], [110, 25, 19, 27, 34, 117, 44, 162]]</t>
+    <t>[[110, 167, 35, 41, 15, 17, 16, 79], [95, 72, 25, 18, 148, 70, 27], [36, 29, 34, 19, 162, 40, 117, 1]]</t>
   </si>
   <si>
-    <t>[[149, 1, 15, 70, 27, 18, 16, 34], [133, 17, 148, 25, 19, 40, 93, 79], [36, 29, 35, 41, 167, 94, 117, 44]]</t>
+    <t>[[25, 86, 40, 117, 18, 148, 17, 79], [144, 36, 29, 35, 41, 19, 162, 34], [132, 15, 120, 64, 44, 167, 16]]</t>
   </si>
   <si>
-    <t>[[79, 36, 29, 35, 41, 16, 70, 162], [86, 17, 148, 1, 15, 40, 93, 34], [19, 27, 18, 149, 25, 44, 167, 117]]</t>
-  </si>
-  <si>
-    <t>[[44, 167, 94, 25, 19, 27, 144, 36], [17, 148, 82, 110, 34, 29, 35, 41], [16, 18, 149, 1, 72, 79, 40, 15]]</t>
+    <t>[[44, 167, 148, 70, 25, 1, 34, 19], [15, 120, 36, 29, 35, 79, 16, 18], [149, 86, 110, 41, 40, 117, 27]]</t>
   </si>
 </sst>
 </file>
@@ -186,39 +183,39 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9340371782641121</v>
+        <v>0.831376931695411</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>100.025</v>
+        <v>4.877631578947369</v>
       </c>
       <c r="D2" t="n">
-        <v>2.745</v>
+        <v>52.46000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9340371782641121</v>
+        <v>0.8298589482927914</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>100.025</v>
+        <v>4.898684210526315</v>
       </c>
       <c r="D3" t="n">
-        <v>2.745</v>
+        <v>60.050000000000004</v>
       </c>
       <c r="E3" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -226,19 +223,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9340371782641121</v>
+        <v>0.8298589482927914</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>100.025</v>
+        <v>4.898684210526315</v>
       </c>
       <c r="D4" t="n">
-        <v>2.745</v>
+        <v>60.050000000000004</v>
       </c>
       <c r="E4" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -246,19 +243,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9313209355082374</v>
+        <v>0.8250689390464908</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>101.19999999999999</v>
+        <v>4.9769736842105265</v>
       </c>
       <c r="D5" t="n">
-        <v>3.71</v>
+        <v>45.1</v>
       </c>
       <c r="E5" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -266,19 +263,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9313209355082374</v>
+        <v>0.8250689390464908</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>101.19999999999999</v>
+        <v>4.9769736842105265</v>
       </c>
       <c r="D6" t="n">
-        <v>3.71</v>
+        <v>45.1</v>
       </c>
       <c r="E6" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
@@ -286,19 +283,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9313209355082374</v>
+        <v>0.8250689390464908</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>101.19999999999999</v>
+        <v>4.9769736842105265</v>
       </c>
       <c r="D7" t="n">
-        <v>3.71</v>
+        <v>45.1</v>
       </c>
       <c r="E7" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -306,16 +303,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9313209355082374</v>
+        <v>0.8231106810621114</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>101.19999999999999</v>
+        <v>4.779374999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>3.71</v>
+        <v>78.80000000000001</v>
       </c>
       <c r="E8" t="n">
         <v>20.0</v>
@@ -326,16 +323,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9313209355082374</v>
+        <v>0.8231106810621114</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>101.19999999999999</v>
+        <v>4.779374999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>3.71</v>
+        <v>78.80000000000001</v>
       </c>
       <c r="E9" t="n">
         <v>20.0</v>
@@ -346,16 +343,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9313209355082374</v>
+        <v>0.8231106810621114</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>101.19999999999999</v>
+        <v>4.779374999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>3.71</v>
+        <v>78.80000000000001</v>
       </c>
       <c r="E10" t="n">
         <v>20.0</v>
@@ -366,19 +363,19 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9313209355082374</v>
+        <v>0.8228717402622441</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>101.19999999999999</v>
+        <v>5.0131578947368425</v>
       </c>
       <c r="D11" t="n">
-        <v>3.71</v>
+        <v>64.82000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="F11" t="n">
         <v>0.0</v>
@@ -386,19 +383,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9262699833966774</v>
+        <v>0.8228717402622441</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>98.09999999999998</v>
+        <v>5.0131578947368425</v>
       </c>
       <c r="D12" t="n">
-        <v>4.369047619047619</v>
+        <v>64.82000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
@@ -406,19 +403,19 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9216286469475243</v>
+        <v>0.8228717402622441</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>100.075</v>
+        <v>5.0131578947368425</v>
       </c>
       <c r="D13" t="n">
-        <v>2.5476190476190474</v>
+        <v>64.82000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="F13" t="n">
         <v>0.0</v>
@@ -426,19 +423,19 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9216286469475243</v>
+        <v>0.8221985519188226</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>100.075</v>
+        <v>4.793749999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>2.5476190476190474</v>
+        <v>51.449999999999996</v>
       </c>
       <c r="E14" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
@@ -446,39 +443,39 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9182331922303135</v>
+        <v>0.8215439738852811</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>101.525</v>
+        <v>5.038815789473684</v>
       </c>
       <c r="D15" t="n">
-        <v>3.738095238095238</v>
+        <v>52.336000000000006</v>
       </c>
       <c r="E15" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9182331922303135</v>
+        <v>0.8188618364038268</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>101.525</v>
+        <v>5.0796052631578945</v>
       </c>
       <c r="D16" t="n">
-        <v>3.738095238095238</v>
+        <v>63.400000000000006</v>
       </c>
       <c r="E16" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -486,39 +483,39 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9182331922303135</v>
+        <v>0.8158730134837369</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C17" t="n">
-        <v>101.525</v>
+        <v>4.9087499999999995</v>
       </c>
       <c r="D17" t="n">
-        <v>3.738095238095238</v>
+        <v>69.55000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9172691376306243</v>
+        <v>0.8127836123469432</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>101.93749999999999</v>
+        <v>4.9437500000000005</v>
       </c>
       <c r="D18" t="n">
-        <v>5.111333333333333</v>
+        <v>59.86</v>
       </c>
       <c r="E18" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="F18" t="n">
         <v>0.0</v>
@@ -526,19 +523,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9155476136174276</v>
+        <v>0.8120850218055444</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C19" t="n">
-        <v>102.67499999999997</v>
+        <v>4.955</v>
       </c>
       <c r="D19" t="n">
-        <v>2.084761904761905</v>
+        <v>77.5</v>
       </c>
       <c r="E19" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="F19" t="n">
         <v>0.0</v>
@@ -546,16 +543,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9113863883561131</v>
+        <v>0.8004211885542942</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C20" t="n">
-        <v>104.46249999999999</v>
+        <v>4.915476190476191</v>
       </c>
       <c r="D20" t="n">
-        <v>2.7523809523809524</v>
+        <v>53.35000000000001</v>
       </c>
       <c r="E20" t="n">
         <v>21.0</v>
@@ -566,16 +563,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9091813761330456</v>
+        <v>0.8004211885542942</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C21" t="n">
-        <v>105.4125</v>
+        <v>4.915476190476191</v>
       </c>
       <c r="D21" t="n">
-        <v>2.3023809523809526</v>
+        <v>53.35000000000001</v>
       </c>
       <c r="E21" t="n">
         <v>21.0</v>
@@ -586,19 +583,19 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.8953033743904956</v>
+        <v>0.8004211885542942</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1</v>
+        <v>4.915476190476191</v>
       </c>
       <c r="D22" t="n">
-        <v>2.2727272727272734</v>
+        <v>53.35000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
@@ -606,19 +603,19 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.8944822610239265</v>
+        <v>0.8004211885542942</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" t="n">
-        <v>106.44999999999999</v>
+        <v>4.915476190476191</v>
       </c>
       <c r="D23" t="n">
-        <v>2.8072727272727267</v>
+        <v>53.35000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F23" t="n">
         <v>0.0</v>
@@ -626,19 +623,19 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.8929296973044556</v>
+        <v>0.8004211885542942</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
       </c>
       <c r="C24" t="n">
-        <v>107.11250000000001</v>
+        <v>4.915476190476191</v>
       </c>
       <c r="D24" t="n">
-        <v>2.715909090909091</v>
+        <v>53.35000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -646,19 +643,19 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.888197931416043</v>
+        <v>0.7950039868127224</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
       </c>
       <c r="C25" t="n">
-        <v>109.13749999999999</v>
+        <v>5.0011904761904775</v>
       </c>
       <c r="D25" t="n">
-        <v>2.0686363636363634</v>
+        <v>55.39999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F25" t="n">
         <v>0.0</v>
@@ -666,19 +663,19 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.888197931416043</v>
+        <v>0.7947797278384325</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" t="n">
-        <v>109.13749999999999</v>
+        <v>5.004761904761904</v>
       </c>
       <c r="D26" t="n">
-        <v>2.0686363636363634</v>
+        <v>61.99999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F26" t="n">
         <v>0.0</v>
@@ -686,19 +683,19 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.8858690077762224</v>
+        <v>0.7941440292149169</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" t="n">
-        <v>110.13749999999999</v>
+        <v>5.014880952380951</v>
       </c>
       <c r="D27" t="n">
-        <v>3.022454545454546</v>
+        <v>59.50000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F27" t="n">
         <v>0.0</v>
@@ -706,19 +703,19 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8858690077762224</v>
+        <v>0.7941440292149169</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" t="n">
-        <v>110.13749999999999</v>
+        <v>5.014880952380951</v>
       </c>
       <c r="D28" t="n">
-        <v>3.022454545454546</v>
+        <v>59.50000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F28" t="n">
         <v>0.0</v>
@@ -726,19 +723,19 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8858690077762224</v>
+        <v>0.7934340927765273</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C29" t="n">
-        <v>110.13749999999999</v>
+        <v>5.026190476190475</v>
       </c>
       <c r="D29" t="n">
-        <v>3.022454545454546</v>
+        <v>45.5</v>
       </c>
       <c r="E29" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F29" t="n">
         <v>0.0</v>
@@ -746,19 +743,19 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8841837712415239</v>
+        <v>0.7934340927765273</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" t="n">
-        <v>110.86250000000001</v>
+        <v>5.026190476190475</v>
       </c>
       <c r="D30" t="n">
-        <v>2.2709090909090905</v>
+        <v>45.5</v>
       </c>
       <c r="E30" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F30" t="n">
         <v>0.0</v>
@@ -766,19 +763,19 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.8670427835680729</v>
+        <v>0.7925394683977187</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C31" t="n">
-        <v>112.94999999999999</v>
+        <v>5.040476190476189</v>
       </c>
       <c r="D31" t="n">
-        <v>3.15695652173913</v>
+        <v>49.45</v>
       </c>
       <c r="E31" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -786,79 +783,79 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.8670427835680729</v>
+        <v>0.7893945107328177</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C32" t="n">
-        <v>112.94999999999999</v>
+        <v>4.8738636363636365</v>
       </c>
       <c r="D32" t="n">
-        <v>3.15695652173913</v>
+        <v>46.4</v>
       </c>
       <c r="E32" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8664861285574871</v>
+        <v>0.7893945107328177</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33" t="n">
-        <v>113.18749999999999</v>
+        <v>4.8738636363636365</v>
       </c>
       <c r="D33" t="n">
-        <v>2.3569565217391304</v>
+        <v>46.4</v>
       </c>
       <c r="E33" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.8664861285574871</v>
+        <v>0.7893945107328177</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C34" t="n">
-        <v>113.18749999999999</v>
+        <v>4.8738636363636365</v>
       </c>
       <c r="D34" t="n">
-        <v>2.3569565217391304</v>
+        <v>46.4</v>
       </c>
       <c r="E34" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8664861285574871</v>
+        <v>0.7841629395953658</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C35" t="n">
-        <v>113.18749999999999</v>
+        <v>4.951136363636364</v>
       </c>
       <c r="D35" t="n">
-        <v>2.3569565217391304</v>
+        <v>49.28</v>
       </c>
       <c r="E35" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F35" t="n">
         <v>0.0</v>
@@ -866,19 +863,19 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8664861285574871</v>
+        <v>0.7841629395953658</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C36" t="n">
-        <v>113.18749999999999</v>
+        <v>4.951136363636364</v>
       </c>
       <c r="D36" t="n">
-        <v>2.3569565217391304</v>
+        <v>49.28</v>
       </c>
       <c r="E36" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F36" t="n">
         <v>0.0</v>
@@ -886,19 +883,19 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.8664861285574871</v>
+        <v>0.7822638565465151</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C37" t="n">
-        <v>113.18749999999999</v>
+        <v>4.980681818181818</v>
       </c>
       <c r="D37" t="n">
-        <v>2.3569565217391304</v>
+        <v>47.620000000000005</v>
       </c>
       <c r="E37" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F37" t="n">
         <v>0.0</v>
@@ -906,19 +903,19 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.8664861285574871</v>
+        <v>0.7809535295447503</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C38" t="n">
-        <v>113.18749999999999</v>
+        <v>5.0011363636363635</v>
       </c>
       <c r="D38" t="n">
-        <v>2.3569565217391304</v>
+        <v>62.30000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F38" t="n">
         <v>0.0</v>
@@ -926,19 +923,19 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.8656370650452632</v>
+        <v>0.7809535295447503</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C39" t="n">
-        <v>113.54999999999998</v>
+        <v>5.0011363636363635</v>
       </c>
       <c r="D39" t="n">
-        <v>2.209130434782609</v>
+        <v>62.30000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F39" t="n">
         <v>0.0</v>
@@ -946,19 +943,19 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.8656370650452632</v>
+        <v>0.7809535295447503</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C40" t="n">
-        <v>113.54999999999998</v>
+        <v>5.0011363636363635</v>
       </c>
       <c r="D40" t="n">
-        <v>2.209130434782609</v>
+        <v>62.30000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F40" t="n">
         <v>0.0</v>
@@ -966,19 +963,19 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.8656370650452632</v>
+        <v>0.7809535295447503</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C41" t="n">
-        <v>113.54999999999998</v>
+        <v>5.0011363636363635</v>
       </c>
       <c r="D41" t="n">
-        <v>2.209130434782609</v>
+        <v>62.30000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F41" t="n">
         <v>0.0</v>
@@ -986,19 +983,19 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.8656370650452632</v>
+        <v>0.7809535295447503</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C42" t="n">
-        <v>113.54999999999998</v>
+        <v>5.0011363636363635</v>
       </c>
       <c r="D42" t="n">
-        <v>2.209130434782609</v>
+        <v>62.30000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F42" t="n">
         <v>0.0</v>
@@ -1006,19 +1003,19 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.8656077993768303</v>
+        <v>0.7809535295447503</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>113.56249999999999</v>
+        <v>5.0011363636363635</v>
       </c>
       <c r="D43" t="n">
-        <v>2.3243478260869566</v>
+        <v>62.30000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F43" t="n">
         <v>0.0</v>
@@ -1026,19 +1023,19 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.8656077993768303</v>
+        <v>0.7809535295447503</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C44" t="n">
-        <v>113.56249999999999</v>
+        <v>5.0011363636363635</v>
       </c>
       <c r="D44" t="n">
-        <v>2.3243478260869566</v>
+        <v>62.30000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F44" t="n">
         <v>0.0</v>
@@ -1046,19 +1043,19 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.8652274181162627</v>
+        <v>0.7803349458273918</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C45" t="n">
-        <v>113.72499999999998</v>
+        <v>5.0107954545454545</v>
       </c>
       <c r="D45" t="n">
-        <v>2.500434782608696</v>
+        <v>43.800000000000004</v>
       </c>
       <c r="E45" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F45" t="n">
         <v>0.0</v>
@@ -1066,19 +1063,19 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.8652274181162627</v>
+        <v>0.7803349458273918</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C46" t="n">
-        <v>113.72499999999998</v>
+        <v>5.0107954545454545</v>
       </c>
       <c r="D46" t="n">
-        <v>2.500434782608696</v>
+        <v>43.800000000000004</v>
       </c>
       <c r="E46" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F46" t="n">
         <v>0.0</v>
@@ -1086,19 +1083,19 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.8652274181162627</v>
+        <v>0.7803349458273918</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C47" t="n">
-        <v>113.72499999999998</v>
+        <v>5.0107954545454545</v>
       </c>
       <c r="D47" t="n">
-        <v>2.500434782608696</v>
+        <v>43.800000000000004</v>
       </c>
       <c r="E47" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F47" t="n">
         <v>0.0</v>
@@ -1106,19 +1103,19 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.8652274181162627</v>
+        <v>0.7803349458273918</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C48" t="n">
-        <v>113.72499999999998</v>
+        <v>5.0107954545454545</v>
       </c>
       <c r="D48" t="n">
-        <v>2.500434782608696</v>
+        <v>43.800000000000004</v>
       </c>
       <c r="E48" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F48" t="n">
         <v>0.0</v>
@@ -1126,19 +1123,19 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.8652274181162627</v>
+        <v>0.7803349458273918</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C49" t="n">
-        <v>113.72499999999998</v>
+        <v>5.0107954545454545</v>
       </c>
       <c r="D49" t="n">
-        <v>2.500434782608696</v>
+        <v>43.800000000000004</v>
       </c>
       <c r="E49" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F49" t="n">
         <v>0.0</v>
@@ -1146,19 +1143,19 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.8652274181162627</v>
+        <v>0.7803349458273918</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C50" t="n">
-        <v>113.72499999999998</v>
+        <v>5.0107954545454545</v>
       </c>
       <c r="D50" t="n">
-        <v>2.500434782608696</v>
+        <v>43.800000000000004</v>
       </c>
       <c r="E50" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F50" t="n">
         <v>0.0</v>
@@ -1166,19 +1163,19 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.8652274181162627</v>
+        <v>0.7803349458273918</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C51" t="n">
-        <v>113.72499999999998</v>
+        <v>5.0107954545454545</v>
       </c>
       <c r="D51" t="n">
-        <v>2.500434782608696</v>
+        <v>43.800000000000004</v>
       </c>
       <c r="E51" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F51" t="n">
         <v>0.0</v>
@@ -1186,19 +1183,19 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.8645840096489382</v>
+        <v>0.7803349458273918</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C52" t="n">
-        <v>114.0</v>
+        <v>5.0107954545454545</v>
       </c>
       <c r="D52" t="n">
-        <v>2.2682608695652173</v>
+        <v>43.800000000000004</v>
       </c>
       <c r="E52" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F52" t="n">
         <v>0.0</v>
@@ -1206,19 +1203,19 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7803349458273918</v>
       </c>
       <c r="B53" t="s">
         <v>27</v>
       </c>
       <c r="C53" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0107954545454545</v>
       </c>
       <c r="D53" t="n">
-        <v>2.5200000000000005</v>
+        <v>43.800000000000004</v>
       </c>
       <c r="E53" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F53" t="n">
         <v>0.0</v>
@@ -1226,19 +1223,19 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7803349458273918</v>
       </c>
       <c r="B54" t="s">
         <v>27</v>
       </c>
       <c r="C54" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0107954545454545</v>
       </c>
       <c r="D54" t="n">
-        <v>2.5200000000000005</v>
+        <v>43.800000000000004</v>
       </c>
       <c r="E54" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F54" t="n">
         <v>0.0</v>
@@ -1246,19 +1243,19 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7803349458273918</v>
       </c>
       <c r="B55" t="s">
         <v>27</v>
       </c>
       <c r="C55" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0107954545454545</v>
       </c>
       <c r="D55" t="n">
-        <v>2.5200000000000005</v>
+        <v>43.800000000000004</v>
       </c>
       <c r="E55" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F55" t="n">
         <v>0.0</v>
@@ -1266,19 +1263,19 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7803349458273918</v>
       </c>
       <c r="B56" t="s">
         <v>27</v>
       </c>
       <c r="C56" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0107954545454545</v>
       </c>
       <c r="D56" t="n">
-        <v>2.5200000000000005</v>
+        <v>43.800000000000004</v>
       </c>
       <c r="E56" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F56" t="n">
         <v>0.0</v>
@@ -1286,19 +1283,19 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7803349458273918</v>
       </c>
       <c r="B57" t="s">
         <v>27</v>
       </c>
       <c r="C57" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0107954545454545</v>
       </c>
       <c r="D57" t="n">
-        <v>2.5200000000000005</v>
+        <v>43.800000000000004</v>
       </c>
       <c r="E57" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F57" t="n">
         <v>0.0</v>
@@ -1306,19 +1303,19 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7803349458273918</v>
       </c>
       <c r="B58" t="s">
         <v>27</v>
       </c>
       <c r="C58" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0107954545454545</v>
       </c>
       <c r="D58" t="n">
-        <v>2.5200000000000005</v>
+        <v>43.800000000000004</v>
       </c>
       <c r="E58" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F58" t="n">
         <v>0.0</v>
@@ -1326,19 +1323,19 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7803349458273918</v>
       </c>
       <c r="B59" t="s">
         <v>27</v>
       </c>
       <c r="C59" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0107954545454545</v>
       </c>
       <c r="D59" t="n">
-        <v>2.5200000000000005</v>
+        <v>43.800000000000004</v>
       </c>
       <c r="E59" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F59" t="n">
         <v>0.0</v>
@@ -1346,19 +1343,19 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7803349458273918</v>
       </c>
       <c r="B60" t="s">
         <v>27</v>
       </c>
       <c r="C60" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0107954545454545</v>
       </c>
       <c r="D60" t="n">
-        <v>2.5200000000000005</v>
+        <v>43.800000000000004</v>
       </c>
       <c r="E60" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F60" t="n">
         <v>0.0</v>
@@ -1366,19 +1363,19 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7803349458273918</v>
       </c>
       <c r="B61" t="s">
         <v>27</v>
       </c>
       <c r="C61" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0107954545454545</v>
       </c>
       <c r="D61" t="n">
-        <v>2.5200000000000005</v>
+        <v>43.800000000000004</v>
       </c>
       <c r="E61" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F61" t="n">
         <v>0.0</v>
@@ -1386,19 +1383,19 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7801535747062821</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62" t="n">
-        <v>114.86249999999998</v>
+        <v>5.013636363636364</v>
       </c>
       <c r="D62" t="n">
-        <v>2.5200000000000005</v>
+        <v>51.2</v>
       </c>
       <c r="E62" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F62" t="n">
         <v>0.0</v>
@@ -1406,19 +1403,19 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7801535747062821</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C63" t="n">
-        <v>114.86249999999998</v>
+        <v>5.013636363636364</v>
       </c>
       <c r="D63" t="n">
-        <v>2.5200000000000005</v>
+        <v>51.2</v>
       </c>
       <c r="E63" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F63" t="n">
         <v>0.0</v>
@@ -1426,19 +1423,19 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7801535747062821</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>114.86249999999998</v>
+        <v>5.013636363636364</v>
       </c>
       <c r="D64" t="n">
-        <v>2.5200000000000005</v>
+        <v>51.2</v>
       </c>
       <c r="E64" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F64" t="n">
         <v>0.0</v>
@@ -1446,19 +1443,19 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7801535747062821</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65" t="n">
-        <v>114.86249999999998</v>
+        <v>5.013636363636364</v>
       </c>
       <c r="D65" t="n">
-        <v>2.5200000000000005</v>
+        <v>51.2</v>
       </c>
       <c r="E65" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F65" t="n">
         <v>0.0</v>
@@ -1466,19 +1463,19 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7801535747062821</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C66" t="n">
-        <v>114.86249999999998</v>
+        <v>5.013636363636364</v>
       </c>
       <c r="D66" t="n">
-        <v>2.5200000000000005</v>
+        <v>51.2</v>
       </c>
       <c r="E66" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F66" t="n">
         <v>0.0</v>
@@ -1486,19 +1483,19 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7801535747062821</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C67" t="n">
-        <v>114.86249999999998</v>
+        <v>5.013636363636364</v>
       </c>
       <c r="D67" t="n">
-        <v>2.5200000000000005</v>
+        <v>51.2</v>
       </c>
       <c r="E67" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F67" t="n">
         <v>0.0</v>
@@ -1506,19 +1503,19 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7801535747062821</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68" t="n">
-        <v>114.86249999999998</v>
+        <v>5.013636363636364</v>
       </c>
       <c r="D68" t="n">
-        <v>2.5200000000000005</v>
+        <v>51.2</v>
       </c>
       <c r="E68" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F68" t="n">
         <v>0.0</v>
@@ -1526,19 +1523,19 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7801535747062821</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C69" t="n">
-        <v>114.86249999999998</v>
+        <v>5.013636363636364</v>
       </c>
       <c r="D69" t="n">
-        <v>2.5200000000000005</v>
+        <v>51.2</v>
       </c>
       <c r="E69" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F69" t="n">
         <v>0.0</v>
@@ -1546,19 +1543,19 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7801535747062821</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C70" t="n">
-        <v>114.86249999999998</v>
+        <v>5.013636363636364</v>
       </c>
       <c r="D70" t="n">
-        <v>2.5200000000000005</v>
+        <v>51.2</v>
       </c>
       <c r="E70" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F70" t="n">
         <v>0.0</v>
@@ -1566,19 +1563,19 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7801535747062821</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C71" t="n">
-        <v>114.86249999999998</v>
+        <v>5.013636363636364</v>
       </c>
       <c r="D71" t="n">
-        <v>2.5200000000000005</v>
+        <v>51.2</v>
       </c>
       <c r="E71" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F71" t="n">
         <v>0.0</v>
@@ -1586,19 +1583,19 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C72" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D72" t="n">
-        <v>2.5200000000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F72" t="n">
         <v>0.0</v>
@@ -1606,19 +1603,19 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C73" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D73" t="n">
-        <v>2.5200000000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F73" t="n">
         <v>0.0</v>
@@ -1626,19 +1623,19 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C74" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D74" t="n">
-        <v>2.5200000000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F74" t="n">
         <v>0.0</v>
@@ -1646,19 +1643,19 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C75" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D75" t="n">
-        <v>2.5200000000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F75" t="n">
         <v>0.0</v>
@@ -1666,19 +1663,19 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C76" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D76" t="n">
-        <v>2.5200000000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F76" t="n">
         <v>0.0</v>
@@ -1686,19 +1683,19 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C77" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D77" t="n">
-        <v>2.5200000000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F77" t="n">
         <v>0.0</v>
@@ -1706,19 +1703,19 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C78" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D78" t="n">
-        <v>2.5200000000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F78" t="n">
         <v>0.0</v>
@@ -1726,19 +1723,19 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C79" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D79" t="n">
-        <v>2.5200000000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F79" t="n">
         <v>0.0</v>
@@ -1746,19 +1743,19 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C80" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D80" t="n">
-        <v>2.5200000000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F80" t="n">
         <v>0.0</v>
@@ -1766,19 +1763,19 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C81" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D81" t="n">
-        <v>2.5200000000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F81" t="n">
         <v>0.0</v>
@@ -1786,19 +1783,19 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B82" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C82" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D82" t="n">
-        <v>2.5200000000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F82" t="n">
         <v>0.0</v>
@@ -1806,19 +1803,19 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B83" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C83" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D83" t="n">
-        <v>2.5200000000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F83" t="n">
         <v>0.0</v>
@@ -1826,19 +1823,19 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B84" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C84" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D84" t="n">
-        <v>2.5200000000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F84" t="n">
         <v>0.0</v>
@@ -1846,19 +1843,19 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C85" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D85" t="n">
-        <v>2.5200000000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F85" t="n">
         <v>0.0</v>
@@ -1866,19 +1863,19 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C86" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D86" t="n">
-        <v>2.5200000000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F86" t="n">
         <v>0.0</v>
@@ -1886,19 +1883,19 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.8625686212908549</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C87" t="n">
-        <v>114.86249999999998</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D87" t="n">
-        <v>2.5200000000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F87" t="n">
         <v>0.0</v>
@@ -1906,19 +1903,19 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.8617227425435465</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C88" t="n">
-        <v>115.22499999999998</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D88" t="n">
-        <v>2.0100000000000002</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F88" t="n">
         <v>0.0</v>
@@ -1926,19 +1923,19 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.8617227425435465</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C89" t="n">
-        <v>115.22499999999998</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D89" t="n">
-        <v>2.0100000000000002</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F89" t="n">
         <v>0.0</v>
@@ -1946,19 +1943,19 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.8477205874205157</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B90" t="s">
         <v>29</v>
       </c>
       <c r="C90" t="n">
-        <v>115.99999999999999</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D90" t="n">
-        <v>1.8029166666666667</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F90" t="n">
         <v>0.0</v>
@@ -1966,19 +1963,19 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.8477205874205157</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B91" t="s">
         <v>29</v>
       </c>
       <c r="C91" t="n">
-        <v>115.99999999999999</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D91" t="n">
-        <v>1.8029166666666667</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F91" t="n">
         <v>0.0</v>
@@ -1986,19 +1983,19 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.8477205874205157</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B92" t="s">
         <v>29</v>
       </c>
       <c r="C92" t="n">
-        <v>115.99999999999999</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D92" t="n">
-        <v>1.8029166666666667</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F92" t="n">
         <v>0.0</v>
@@ -2006,19 +2003,19 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.8477205874205157</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B93" t="s">
         <v>29</v>
       </c>
       <c r="C93" t="n">
-        <v>115.99999999999999</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D93" t="n">
-        <v>1.8029166666666667</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F93" t="n">
         <v>0.0</v>
@@ -2026,19 +2023,19 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.8477205874205157</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B94" t="s">
         <v>29</v>
       </c>
       <c r="C94" t="n">
-        <v>115.99999999999999</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D94" t="n">
-        <v>1.8029166666666667</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F94" t="n">
         <v>0.0</v>
@@ -2046,19 +2043,19 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.8477205874205157</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B95" t="s">
         <v>29</v>
       </c>
       <c r="C95" t="n">
-        <v>115.99999999999999</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D95" t="n">
-        <v>1.8029166666666667</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F95" t="n">
         <v>0.0</v>
@@ -2066,19 +2063,19 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.8477205874205157</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B96" t="s">
         <v>29</v>
       </c>
       <c r="C96" t="n">
-        <v>115.99999999999999</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D96" t="n">
-        <v>1.8029166666666667</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F96" t="n">
         <v>0.0</v>
@@ -2086,19 +2083,19 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.8477205874205157</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B97" t="s">
         <v>29</v>
       </c>
       <c r="C97" t="n">
-        <v>115.99999999999999</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D97" t="n">
-        <v>1.8029166666666667</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F97" t="n">
         <v>0.0</v>
@@ -2106,19 +2103,19 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.8477205874205157</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B98" t="s">
         <v>29</v>
       </c>
       <c r="C98" t="n">
-        <v>115.99999999999999</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D98" t="n">
-        <v>1.8029166666666667</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F98" t="n">
         <v>0.0</v>
@@ -2126,19 +2123,19 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.8477205874205157</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B99" t="s">
         <v>29</v>
       </c>
       <c r="C99" t="n">
-        <v>115.99999999999999</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D99" t="n">
-        <v>1.8029166666666667</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F99" t="n">
         <v>0.0</v>
@@ -2146,19 +2143,19 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.8477205874205157</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B100" t="s">
         <v>29</v>
       </c>
       <c r="C100" t="n">
-        <v>115.99999999999999</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D100" t="n">
-        <v>1.8029166666666667</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F100" t="n">
         <v>0.0</v>
@@ -2166,19 +2163,19 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.8477205874205157</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B101" t="s">
         <v>29</v>
       </c>
       <c r="C101" t="n">
-        <v>115.99999999999999</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D101" t="n">
-        <v>1.8029166666666667</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F101" t="n">
         <v>0.0</v>
@@ -2186,19 +2183,19 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.8477205874205157</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B102" t="s">
         <v>29</v>
       </c>
       <c r="C102" t="n">
-        <v>115.99999999999999</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D102" t="n">
-        <v>1.8029166666666667</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F102" t="n">
         <v>0.0</v>
@@ -2206,19 +2203,19 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.8477205874205157</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B103" t="s">
         <v>29</v>
       </c>
       <c r="C103" t="n">
-        <v>115.99999999999999</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D103" t="n">
-        <v>1.8029166666666667</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F103" t="n">
         <v>0.0</v>
@@ -2226,19 +2223,19 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.8477205874205157</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B104" t="s">
         <v>29</v>
       </c>
       <c r="C104" t="n">
-        <v>115.99999999999999</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D104" t="n">
-        <v>1.8029166666666667</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F104" t="n">
         <v>0.0</v>
@@ -2246,19 +2243,19 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.8477205874205157</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B105" t="s">
         <v>29</v>
       </c>
       <c r="C105" t="n">
-        <v>115.99999999999999</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D105" t="n">
-        <v>1.8029166666666667</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F105" t="n">
         <v>0.0</v>
@@ -2266,19 +2263,19 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.8477205874205157</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B106" t="s">
         <v>29</v>
       </c>
       <c r="C106" t="n">
-        <v>115.99999999999999</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D106" t="n">
-        <v>1.8029166666666667</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F106" t="n">
         <v>0.0</v>
@@ -2286,19 +2283,19 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.8477205874205157</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B107" t="s">
         <v>29</v>
       </c>
       <c r="C107" t="n">
-        <v>115.99999999999999</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D107" t="n">
-        <v>1.8029166666666667</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F107" t="n">
         <v>0.0</v>
@@ -2306,19 +2303,19 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C108" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D108" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F108" t="n">
         <v>0.0</v>
@@ -2326,19 +2323,19 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C109" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D109" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F109" t="n">
         <v>0.0</v>
@@ -2346,19 +2343,19 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C110" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D110" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F110" t="n">
         <v>0.0</v>
@@ -2366,19 +2363,19 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C111" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D111" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F111" t="n">
         <v>0.0</v>
@@ -2386,19 +2383,19 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C112" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D112" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F112" t="n">
         <v>0.0</v>
@@ -2406,19 +2403,19 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C113" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D113" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F113" t="n">
         <v>0.0</v>
@@ -2426,19 +2423,19 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C114" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D114" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F114" t="n">
         <v>0.0</v>
@@ -2446,19 +2443,19 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C115" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D115" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F115" t="n">
         <v>0.0</v>
@@ -2466,19 +2463,19 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C116" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D116" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F116" t="n">
         <v>0.0</v>
@@ -2486,19 +2483,19 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C117" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D117" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F117" t="n">
         <v>0.0</v>
@@ -2506,19 +2503,19 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C118" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D118" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F118" t="n">
         <v>0.0</v>
@@ -2526,19 +2523,19 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C119" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D119" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F119" t="n">
         <v>0.0</v>
@@ -2546,19 +2543,19 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C120" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D120" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F120" t="n">
         <v>0.0</v>
@@ -2566,19 +2563,19 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C121" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D121" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F121" t="n">
         <v>0.0</v>
@@ -2586,19 +2583,19 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C122" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D122" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E122" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F122" t="n">
         <v>0.0</v>
@@ -2606,19 +2603,19 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C123" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D123" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F123" t="n">
         <v>0.0</v>
@@ -2626,19 +2623,19 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C124" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D124" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F124" t="n">
         <v>0.0</v>
@@ -2646,19 +2643,19 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C125" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D125" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F125" t="n">
         <v>0.0</v>
@@ -2666,19 +2663,19 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C126" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D126" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F126" t="n">
         <v>0.0</v>
@@ -2686,19 +2683,19 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C127" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D127" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F127" t="n">
         <v>0.0</v>
@@ -2706,19 +2703,19 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C128" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D128" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F128" t="n">
         <v>0.0</v>
@@ -2726,19 +2723,19 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C129" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D129" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F129" t="n">
         <v>0.0</v>
@@ -2746,19 +2743,19 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C130" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D130" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F130" t="n">
         <v>0.0</v>
@@ -2766,19 +2763,19 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C131" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D131" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F131" t="n">
         <v>0.0</v>
@@ -2786,19 +2783,19 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C132" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D132" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F132" t="n">
         <v>0.0</v>
@@ -2806,19 +2803,19 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C133" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D133" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E133" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F133" t="n">
         <v>0.0</v>
@@ -2826,19 +2823,19 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C134" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D134" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E134" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F134" t="n">
         <v>0.0</v>
@@ -2846,19 +2843,19 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C135" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D135" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F135" t="n">
         <v>0.0</v>
@@ -2866,19 +2863,19 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C136" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D136" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F136" t="n">
         <v>0.0</v>
@@ -2886,19 +2883,19 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C137" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D137" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E137" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F137" t="n">
         <v>0.0</v>
@@ -2906,19 +2903,19 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C138" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D138" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E138" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F138" t="n">
         <v>0.0</v>
@@ -2926,19 +2923,19 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C139" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D139" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F139" t="n">
         <v>0.0</v>
@@ -2946,19 +2943,19 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.8471302798986491</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C140" t="n">
-        <v>116.25</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D140" t="n">
-        <v>2.3083333333333336</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E140" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F140" t="n">
         <v>0.0</v>
@@ -2966,19 +2963,19 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.8468057489316368</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B141" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C141" t="n">
-        <v>116.38749999999999</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D141" t="n">
-        <v>1.816166666666667</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F141" t="n">
         <v>0.0</v>
@@ -2986,19 +2983,19 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.8468057489316368</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B142" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C142" t="n">
-        <v>116.38749999999999</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D142" t="n">
-        <v>1.816166666666667</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E142" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F142" t="n">
         <v>0.0</v>
@@ -3006,19 +3003,19 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.8468057489316368</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B143" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C143" t="n">
-        <v>116.38749999999999</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D143" t="n">
-        <v>1.816166666666667</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E143" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F143" t="n">
         <v>0.0</v>
@@ -3026,19 +3023,19 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.8468057489316368</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B144" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C144" t="n">
-        <v>116.38749999999999</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D144" t="n">
-        <v>1.816166666666667</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E144" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F144" t="n">
         <v>0.0</v>
@@ -3046,19 +3043,19 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B145" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C145" t="n">
-        <v>116.6125</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D145" t="n">
-        <v>2.0712500000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E145" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F145" t="n">
         <v>0.0</v>
@@ -3066,19 +3063,19 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B146" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C146" t="n">
-        <v>116.6125</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D146" t="n">
-        <v>2.0712500000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E146" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F146" t="n">
         <v>0.0</v>
@@ -3086,19 +3083,19 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B147" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C147" t="n">
-        <v>116.6125</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D147" t="n">
-        <v>2.0712500000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E147" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F147" t="n">
         <v>0.0</v>
@@ -3106,19 +3103,19 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B148" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C148" t="n">
-        <v>116.6125</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D148" t="n">
-        <v>2.0712500000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E148" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F148" t="n">
         <v>0.0</v>
@@ -3126,19 +3123,19 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B149" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C149" t="n">
-        <v>116.6125</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D149" t="n">
-        <v>2.0712500000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E149" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F149" t="n">
         <v>0.0</v>
@@ -3146,19 +3143,19 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B150" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C150" t="n">
-        <v>116.6125</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D150" t="n">
-        <v>2.0712500000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E150" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F150" t="n">
         <v>0.0</v>
@@ -3166,19 +3163,19 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B151" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C151" t="n">
-        <v>116.6125</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D151" t="n">
-        <v>2.0712500000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E151" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F151" t="n">
         <v>0.0</v>
@@ -3186,19 +3183,19 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B152" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C152" t="n">
-        <v>116.6125</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D152" t="n">
-        <v>2.0712500000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E152" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F152" t="n">
         <v>0.0</v>
@@ -3206,19 +3203,19 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B153" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C153" t="n">
-        <v>116.6125</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D153" t="n">
-        <v>2.0712500000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E153" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F153" t="n">
         <v>0.0</v>
@@ -3226,19 +3223,19 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B154" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C154" t="n">
-        <v>116.6125</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D154" t="n">
-        <v>2.0712500000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E154" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F154" t="n">
         <v>0.0</v>
@@ -3246,19 +3243,19 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B155" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C155" t="n">
-        <v>116.6125</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D155" t="n">
-        <v>2.0712500000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E155" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F155" t="n">
         <v>0.0</v>
@@ -3266,19 +3263,19 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B156" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C156" t="n">
-        <v>116.6125</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D156" t="n">
-        <v>2.0712500000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E156" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F156" t="n">
         <v>0.0</v>
@@ -3286,19 +3283,19 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B157" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C157" t="n">
-        <v>116.6125</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D157" t="n">
-        <v>2.0712500000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E157" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F157" t="n">
         <v>0.0</v>
@@ -3306,19 +3303,19 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B158" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C158" t="n">
-        <v>116.6125</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D158" t="n">
-        <v>2.0712500000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E158" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F158" t="n">
         <v>0.0</v>
@@ -3326,19 +3323,19 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B159" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C159" t="n">
-        <v>116.6125</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D159" t="n">
-        <v>2.0712500000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E159" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F159" t="n">
         <v>0.0</v>
@@ -3346,19 +3343,19 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B160" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C160" t="n">
-        <v>116.6125</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D160" t="n">
-        <v>2.0712500000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E160" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F160" t="n">
         <v>0.0</v>
@@ -3366,19 +3363,19 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B161" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C161" t="n">
-        <v>116.6125</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D161" t="n">
-        <v>2.0712500000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E161" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F161" t="n">
         <v>0.0</v>
@@ -3386,19 +3383,19 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7786301948215781</v>
       </c>
       <c r="B162" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C162" t="n">
-        <v>116.6125</v>
+        <v>5.0375000000000005</v>
       </c>
       <c r="D162" t="n">
-        <v>2.0712500000000005</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="E162" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F162" t="n">
         <v>0.0</v>
@@ -3406,19 +3403,19 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B163" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C163" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D163" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E163" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F163" t="n">
         <v>0.0</v>
@@ -3426,19 +3423,19 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B164" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C164" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D164" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E164" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F164" t="n">
         <v>0.0</v>
@@ -3446,19 +3443,19 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B165" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C165" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D165" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E165" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F165" t="n">
         <v>0.0</v>
@@ -3466,19 +3463,19 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B166" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C166" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D166" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E166" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F166" t="n">
         <v>0.0</v>
@@ -3486,19 +3483,19 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B167" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C167" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D167" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E167" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F167" t="n">
         <v>0.0</v>
@@ -3506,19 +3503,19 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B168" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C168" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D168" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E168" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F168" t="n">
         <v>0.0</v>
@@ -3526,19 +3523,19 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B169" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C169" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D169" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E169" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F169" t="n">
         <v>0.0</v>
@@ -3546,19 +3543,19 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B170" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C170" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D170" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E170" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F170" t="n">
         <v>0.0</v>
@@ -3566,19 +3563,19 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B171" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C171" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D171" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E171" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F171" t="n">
         <v>0.0</v>
@@ -3586,19 +3583,19 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B172" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C172" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D172" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E172" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F172" t="n">
         <v>0.0</v>
@@ -3606,19 +3603,19 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B173" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C173" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D173" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E173" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F173" t="n">
         <v>0.0</v>
@@ -3626,19 +3623,19 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B174" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C174" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D174" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E174" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F174" t="n">
         <v>0.0</v>
@@ -3646,19 +3643,19 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B175" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C175" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D175" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E175" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F175" t="n">
         <v>0.0</v>
@@ -3666,19 +3663,19 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B176" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C176" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D176" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E176" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F176" t="n">
         <v>0.0</v>
@@ -3686,19 +3683,19 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B177" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C177" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D177" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E177" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F177" t="n">
         <v>0.0</v>
@@ -3706,19 +3703,19 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B178" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C178" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D178" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E178" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F178" t="n">
         <v>0.0</v>
@@ -3726,19 +3723,19 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B179" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C179" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D179" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E179" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F179" t="n">
         <v>0.0</v>
@@ -3746,19 +3743,19 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B180" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C180" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D180" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E180" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F180" t="n">
         <v>0.0</v>
@@ -3766,19 +3763,19 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B181" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C181" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D181" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E181" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F181" t="n">
         <v>0.0</v>
@@ -3786,19 +3783,19 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B182" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C182" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D182" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E182" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F182" t="n">
         <v>0.0</v>
@@ -3806,19 +3803,19 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B183" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C183" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D183" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E183" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F183" t="n">
         <v>0.0</v>
@@ -3826,19 +3823,19 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B184" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C184" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D184" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E184" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F184" t="n">
         <v>0.0</v>
@@ -3846,19 +3843,19 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B185" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C185" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D185" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E185" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F185" t="n">
         <v>0.0</v>
@@ -3866,19 +3863,19 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B186" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C186" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D186" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E186" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F186" t="n">
         <v>0.0</v>
@@ -3886,19 +3883,19 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B187" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C187" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D187" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E187" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F187" t="n">
         <v>0.0</v>
@@ -3906,19 +3903,19 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B188" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C188" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D188" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E188" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F188" t="n">
         <v>0.0</v>
@@ -3926,19 +3923,19 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B189" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C189" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D189" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E189" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F189" t="n">
         <v>0.0</v>
@@ -3946,19 +3943,19 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B190" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C190" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D190" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E190" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F190" t="n">
         <v>0.0</v>
@@ -3966,19 +3963,19 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B191" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C191" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D191" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E191" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F191" t="n">
         <v>0.0</v>
@@ -3986,19 +3983,19 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B192" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C192" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D192" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E192" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F192" t="n">
         <v>0.0</v>
@@ -4006,19 +4003,19 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B193" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C193" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D193" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E193" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F193" t="n">
         <v>0.0</v>
@@ -4026,19 +4023,19 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B194" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C194" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D194" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E194" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F194" t="n">
         <v>0.0</v>
@@ -4046,19 +4043,19 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B195" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C195" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D195" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E195" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F195" t="n">
         <v>0.0</v>
@@ -4066,19 +4063,19 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B196" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C196" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D196" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E196" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F196" t="n">
         <v>0.0</v>
@@ -4086,19 +4083,19 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B197" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C197" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D197" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E197" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F197" t="n">
         <v>0.0</v>
@@ -4106,19 +4103,19 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B198" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C198" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D198" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E198" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F198" t="n">
         <v>0.0</v>
@@ -4126,19 +4123,19 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B199" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C199" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D199" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E199" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F199" t="n">
         <v>0.0</v>
@@ -4146,19 +4143,19 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B200" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C200" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D200" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E200" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F200" t="n">
         <v>0.0</v>
@@ -4166,19 +4163,19 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B201" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C201" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D201" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E201" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F201" t="n">
         <v>0.0</v>
@@ -4186,19 +4183,19 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B202" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C202" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D202" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E202" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F202" t="n">
         <v>0.0</v>
@@ -4206,19 +4203,19 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B203" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C203" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D203" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E203" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F203" t="n">
         <v>0.0</v>
@@ -4226,19 +4223,19 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B204" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C204" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D204" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E204" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F204" t="n">
         <v>0.0</v>
@@ -4246,19 +4243,19 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B205" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C205" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D205" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E205" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F205" t="n">
         <v>0.0</v>
@@ -4266,19 +4263,19 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B206" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C206" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D206" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E206" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F206" t="n">
         <v>0.0</v>
@@ -4286,19 +4283,19 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B207" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C207" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D207" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E207" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F207" t="n">
         <v>0.0</v>
@@ -4306,19 +4303,19 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B208" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C208" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D208" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E208" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F208" t="n">
         <v>0.0</v>
@@ -4326,19 +4323,19 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B209" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C209" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D209" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E209" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F209" t="n">
         <v>0.0</v>
@@ -4346,19 +4343,19 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B210" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C210" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D210" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E210" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F210" t="n">
         <v>0.0</v>
@@ -4366,19 +4363,19 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B211" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C211" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D211" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E211" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F211" t="n">
         <v>0.0</v>
@@ -4386,19 +4383,19 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B212" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C212" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D212" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E212" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F212" t="n">
         <v>0.0</v>
@@ -4406,19 +4403,19 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B213" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C213" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D213" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E213" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F213" t="n">
         <v>0.0</v>
@@ -4426,19 +4423,19 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B214" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C214" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D214" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E214" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F214" t="n">
         <v>0.0</v>
@@ -4446,19 +4443,19 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B215" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C215" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D215" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E215" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F215" t="n">
         <v>0.0</v>
@@ -4466,19 +4463,19 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B216" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C216" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D216" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E216" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F216" t="n">
         <v>0.0</v>
@@ -4486,19 +4483,19 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B217" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C217" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D217" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E217" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F217" t="n">
         <v>0.0</v>
@@ -4506,19 +4503,19 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B218" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C218" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D218" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E218" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F218" t="n">
         <v>0.0</v>
@@ -4526,19 +4523,19 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.8462749129751327</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B219" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C219" t="n">
-        <v>116.6125</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D219" t="n">
-        <v>2.0712500000000005</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E219" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F219" t="n">
         <v>0.0</v>
@@ -4546,19 +4543,19 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B220" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C220" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D220" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E220" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F220" t="n">
         <v>0.0</v>
@@ -4566,19 +4563,19 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B221" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C221" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D221" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E221" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F221" t="n">
         <v>0.0</v>
@@ -4586,19 +4583,19 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B222" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C222" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D222" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E222" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F222" t="n">
         <v>0.0</v>
@@ -4606,19 +4603,19 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B223" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C223" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D223" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E223" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F223" t="n">
         <v>0.0</v>
@@ -4626,19 +4623,19 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B224" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C224" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D224" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E224" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F224" t="n">
         <v>0.0</v>
@@ -4646,19 +4643,19 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B225" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C225" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D225" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E225" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F225" t="n">
         <v>0.0</v>
@@ -4666,19 +4663,19 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B226" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C226" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D226" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E226" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F226" t="n">
         <v>0.0</v>
@@ -4686,19 +4683,19 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B227" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C227" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D227" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E227" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F227" t="n">
         <v>0.0</v>
@@ -4706,19 +4703,19 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B228" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C228" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D228" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E228" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F228" t="n">
         <v>0.0</v>
@@ -4726,19 +4723,19 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B229" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C229" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D229" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E229" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F229" t="n">
         <v>0.0</v>
@@ -4746,19 +4743,19 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B230" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C230" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D230" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E230" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F230" t="n">
         <v>0.0</v>
@@ -4766,19 +4763,19 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B231" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C231" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D231" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E231" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F231" t="n">
         <v>0.0</v>
@@ -4786,19 +4783,19 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B232" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C232" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D232" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E232" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F232" t="n">
         <v>0.0</v>
@@ -4806,19 +4803,19 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B233" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C233" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D233" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E233" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F233" t="n">
         <v>0.0</v>
@@ -4826,19 +4823,19 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B234" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C234" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D234" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E234" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F234" t="n">
         <v>0.0</v>
@@ -4846,19 +4843,19 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B235" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C235" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D235" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E235" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F235" t="n">
         <v>0.0</v>
@@ -4866,19 +4863,19 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B236" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C236" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D236" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E236" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F236" t="n">
         <v>0.0</v>
@@ -4886,19 +4883,19 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B237" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C237" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D237" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E237" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F237" t="n">
         <v>0.0</v>
@@ -4906,19 +4903,19 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B238" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C238" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D238" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E238" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F238" t="n">
         <v>0.0</v>
@@ -4926,19 +4923,19 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B239" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C239" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D239" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E239" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F239" t="n">
         <v>0.0</v>
@@ -4946,19 +4943,19 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B240" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C240" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D240" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E240" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F240" t="n">
         <v>0.0</v>
@@ -4966,19 +4963,19 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B241" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C241" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D241" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E241" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F241" t="n">
         <v>0.0</v>
@@ -4986,19 +4983,19 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B242" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C242" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D242" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E242" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F242" t="n">
         <v>0.0</v>
@@ -5006,19 +5003,19 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B243" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C243" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D243" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E243" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F243" t="n">
         <v>0.0</v>
@@ -5026,19 +5023,19 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B244" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C244" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D244" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E244" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F244" t="n">
         <v>0.0</v>
@@ -5046,19 +5043,19 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B245" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C245" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D245" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E245" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F245" t="n">
         <v>0.0</v>
@@ -5066,19 +5063,19 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B246" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C246" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D246" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E246" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F246" t="n">
         <v>0.0</v>
@@ -5086,19 +5083,19 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B247" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C247" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D247" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E247" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F247" t="n">
         <v>0.0</v>
@@ -5106,19 +5103,19 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7776190921173038</v>
       </c>
       <c r="B248" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C248" t="n">
-        <v>117.175</v>
+        <v>4.840760869565217</v>
       </c>
       <c r="D248" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.699999999999996</v>
       </c>
       <c r="E248" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F248" t="n">
         <v>0.0</v>
@@ -5126,19 +5123,19 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B249" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C249" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D249" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E249" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F249" t="n">
         <v>0.0</v>
@@ -5146,19 +5143,19 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B250" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C250" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D250" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E250" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F250" t="n">
         <v>0.0</v>
@@ -5166,19 +5163,19 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B251" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C251" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D251" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E251" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F251" t="n">
         <v>0.0</v>
@@ -5186,19 +5183,19 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B252" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C252" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D252" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E252" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F252" t="n">
         <v>0.0</v>
@@ -5206,19 +5203,19 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B253" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C253" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D253" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E253" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F253" t="n">
         <v>0.0</v>
@@ -5226,19 +5223,19 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B254" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C254" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D254" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E254" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F254" t="n">
         <v>0.0</v>
@@ -5246,19 +5243,19 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B255" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C255" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D255" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E255" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F255" t="n">
         <v>0.0</v>
@@ -5266,19 +5263,19 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B256" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C256" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D256" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E256" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F256" t="n">
         <v>0.0</v>
@@ -5286,19 +5283,19 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B257" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C257" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D257" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E257" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F257" t="n">
         <v>0.0</v>
@@ -5306,19 +5303,19 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B258" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C258" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D258" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E258" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F258" t="n">
         <v>0.0</v>
@@ -5326,19 +5323,19 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B259" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C259" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D259" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E259" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F259" t="n">
         <v>0.0</v>
@@ -5346,19 +5343,19 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B260" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C260" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D260" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E260" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F260" t="n">
         <v>0.0</v>
@@ -5366,19 +5363,19 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B261" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C261" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D261" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E261" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F261" t="n">
         <v>0.0</v>
@@ -5386,19 +5383,19 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B262" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C262" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D262" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E262" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F262" t="n">
         <v>0.0</v>
@@ -5406,19 +5403,19 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B263" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C263" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D263" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E263" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F263" t="n">
         <v>0.0</v>
@@ -5426,19 +5423,19 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B264" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C264" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D264" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E264" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F264" t="n">
         <v>0.0</v>
@@ -5446,19 +5443,19 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B265" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C265" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D265" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E265" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F265" t="n">
         <v>0.0</v>
@@ -5466,19 +5463,19 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B266" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C266" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D266" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E266" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F266" t="n">
         <v>0.0</v>
@@ -5486,19 +5483,19 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B267" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C267" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D267" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E267" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F267" t="n">
         <v>0.0</v>
@@ -5506,19 +5503,19 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B268" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C268" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D268" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E268" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F268" t="n">
         <v>0.0</v>
@@ -5526,19 +5523,19 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B269" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C269" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D269" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E269" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F269" t="n">
         <v>0.0</v>
@@ -5546,19 +5543,19 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B270" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C270" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D270" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E270" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F270" t="n">
         <v>0.0</v>
@@ -5566,19 +5563,19 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B271" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C271" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D271" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E271" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F271" t="n">
         <v>0.0</v>
@@ -5586,19 +5583,19 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B272" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C272" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D272" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E272" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F272" t="n">
         <v>0.0</v>
@@ -5606,19 +5603,19 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B273" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C273" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D273" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E273" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F273" t="n">
         <v>0.0</v>
@@ -5626,19 +5623,19 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B274" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C274" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D274" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E274" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F274" t="n">
         <v>0.0</v>
@@ -5646,19 +5643,19 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B275" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C275" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D275" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E275" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F275" t="n">
         <v>0.0</v>
@@ -5666,19 +5663,19 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B276" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C276" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D276" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E276" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F276" t="n">
         <v>0.0</v>
@@ -5686,19 +5683,19 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B277" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C277" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D277" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E277" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F277" t="n">
         <v>0.0</v>
@@ -5706,19 +5703,19 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B278" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C278" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D278" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E278" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F278" t="n">
         <v>0.0</v>
@@ -5726,19 +5723,19 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B279" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C279" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D279" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E279" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F279" t="n">
         <v>0.0</v>
@@ -5746,19 +5743,19 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B280" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C280" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D280" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E280" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F280" t="n">
         <v>0.0</v>
@@ -5766,19 +5763,19 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B281" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C281" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D281" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E281" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F281" t="n">
         <v>0.0</v>
@@ -5786,19 +5783,19 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B282" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C282" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D282" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E282" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F282" t="n">
         <v>0.0</v>
@@ -5806,19 +5803,19 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B283" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C283" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D283" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E283" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F283" t="n">
         <v>0.0</v>
@@ -5826,19 +5823,19 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B284" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C284" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D284" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E284" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F284" t="n">
         <v>0.0</v>
@@ -5846,19 +5843,19 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B285" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C285" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D285" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E285" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F285" t="n">
         <v>0.0</v>
@@ -5866,19 +5863,19 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B286" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C286" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D286" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E286" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F286" t="n">
         <v>0.0</v>
@@ -5886,19 +5883,19 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B287" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C287" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D287" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E287" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F287" t="n">
         <v>0.0</v>
@@ -5906,19 +5903,19 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B288" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C288" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D288" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E288" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F288" t="n">
         <v>0.0</v>
@@ -5926,19 +5923,19 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B289" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C289" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D289" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E289" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F289" t="n">
         <v>0.0</v>
@@ -5946,19 +5943,19 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B290" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C290" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D290" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E290" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F290" t="n">
         <v>0.0</v>
@@ -5966,19 +5963,19 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B291" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C291" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D291" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E291" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F291" t="n">
         <v>0.0</v>
@@ -5986,19 +5983,19 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B292" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C292" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D292" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E292" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F292" t="n">
         <v>0.0</v>
@@ -6006,19 +6003,19 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B293" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C293" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D293" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E293" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F293" t="n">
         <v>0.0</v>
@@ -6026,19 +6023,19 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B294" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C294" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D294" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E294" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F294" t="n">
         <v>0.0</v>
@@ -6046,19 +6043,19 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B295" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C295" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D295" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E295" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F295" t="n">
         <v>0.0</v>
@@ -6066,19 +6063,19 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B296" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C296" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D296" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E296" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F296" t="n">
         <v>0.0</v>
@@ -6086,19 +6083,19 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B297" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C297" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D297" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E297" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F297" t="n">
         <v>0.0</v>
@@ -6106,19 +6103,19 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.777366718418946</v>
       </c>
       <c r="B298" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C298" t="n">
-        <v>117.175</v>
+        <v>4.844565217391304</v>
       </c>
       <c r="D298" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.15</v>
       </c>
       <c r="E298" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F298" t="n">
         <v>0.0</v>
@@ -6126,19 +6123,19 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7760345978736523</v>
       </c>
       <c r="B299" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C299" t="n">
-        <v>117.175</v>
+        <v>4.864673913043479</v>
       </c>
       <c r="D299" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.49999999999999</v>
       </c>
       <c r="E299" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F299" t="n">
         <v>0.0</v>
@@ -6146,19 +6143,19 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7760345978736523</v>
       </c>
       <c r="B300" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C300" t="n">
-        <v>117.175</v>
+        <v>4.864673913043479</v>
       </c>
       <c r="D300" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.49999999999999</v>
       </c>
       <c r="E300" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F300" t="n">
         <v>0.0</v>
@@ -6166,19 +6163,19 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.8449489839301444</v>
+        <v>0.7760345978736523</v>
       </c>
       <c r="B301" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C301" t="n">
-        <v>117.175</v>
+        <v>4.864673913043479</v>
       </c>
       <c r="D301" t="n">
-        <v>1.8695833333333332</v>
+        <v>54.49999999999999</v>
       </c>
       <c r="E301" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F301" t="n">
         <v>0.0</v>
